--- a/data/trans_dic/P22_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P22_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con grado de felicidad &lt;=7 en la última semana</t>
+          <t>Población con grado de felicidad &lt;=7 en la última semana (tasa de respuesta: 99,63%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>38,22%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35,37%</t>
+          <t>35,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>35,92%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>35,9%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>47,16%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>41,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>47,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>42,67%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45,25%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43,11%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>40,99%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>42,62%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>38,98%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>39,82%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>40,28%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>43,01%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>39,42%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>40,52%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>39,69%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>38,49%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>40,72%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,44; 41,73</t>
+          <t>33,9; 42,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,13; 39,17</t>
+          <t>31,93; 40,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,73; 39,46</t>
+          <t>31,19; 39,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,38; 39,46</t>
+          <t>30,79; 40,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,8; 51,0</t>
+          <t>31,91; 39,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,56; 45,92</t>
+          <t>37,48; 45,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,06; 47,92</t>
+          <t>43,24; 50,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,56; 45,12</t>
+          <t>39,22; 46,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,68; 45,6</t>
+          <t>41,57; 48,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,2; 41,45</t>
+          <t>39,09; 47,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>36,68; 42,46</t>
+          <t>37,33; 44,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,85; 41,13</t>
+          <t>37,24; 44,02</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>40,22; 45,98</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>36,75; 42,25</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>37,68; 43,18</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>36,13; 42,99</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>35,87; 41,0</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>38,48; 43,33</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>33,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,3%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,51%</t>
+          <t>41,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,82%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>41,31%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>38,21%</t>
+          <t>43,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>36,64%</t>
+          <t>46,83%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>38,34%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>37,27%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>38,11%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>37,15%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>37,24%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>38,97%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>36,42%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,53; 37,37</t>
+          <t>28,79; 38,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,61; 38,93</t>
+          <t>29,01; 38,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,51; 37,91</t>
+          <t>28,18; 37,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,78; 38,54</t>
+          <t>26,32; 35,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,66; 45,67</t>
+          <t>25,2; 38,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,3; 46,9</t>
+          <t>28,46; 40,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,39; 44,83</t>
+          <t>37,2; 46,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,84; 53,74</t>
+          <t>38,86; 47,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,6; 40,46</t>
+          <t>37,05; 45,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35,05; 41,18</t>
+          <t>39,02; 48,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,64; 39,76</t>
+          <t>40,22; 54,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,76; 43,76</t>
+          <t>31,71; 45,61</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>33,76; 40,58</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>34,88; 41,34</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>34,24; 40,77</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>33,79; 40,87</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>34,54; 43,92</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>31,81; 41,17</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,87%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>45,98%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>45,39%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>46,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>41,29%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40,91%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>34,56%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>40,51%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>37,36%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>40,37%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>41,71%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>37,68%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>41,47%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>40,34%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,02; 47,99</t>
+          <t>28,51; 50,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,64; 43,65</t>
+          <t>26,85; 45,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,09; 50,34</t>
+          <t>33,4; 52,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>34,79; 59,28</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>36,38; 53,92</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,86; 49,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,31; 48,73</t>
+          <t>38,06; 55,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>33,5; 48,98</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>33,46; 48,66</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26,27; 43,93</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>33,91; 47,68</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>31,84; 42,67</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>34,61; 46,59</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>35,28; 49,41</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>31,93; 43,82</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>35,61; 47,79</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>33,51; 49,29</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>34,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,68%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>35,18%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>34,95%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>44,69%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,25%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>44,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>43,26%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>38,63%</t>
+          <t>42,24%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>39,86%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>40,59%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>38,7%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>39,31%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>38,81%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>38,6%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>39,73%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,4; 38,45</t>
+          <t>32,95; 39,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,82; 37,62</t>
+          <t>31,96; 37,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,67; 37,84</t>
+          <t>32,13; 37,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,9; 38,05</t>
+          <t>31,83; 38,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,73; 47,31</t>
+          <t>31,74; 37,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,88; 44,72</t>
+          <t>35,89; 42,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,01; 45,17</t>
+          <t>42,03; 47,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,98; 45,38</t>
+          <t>40,16; 45,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,98; 42,16</t>
+          <t>40,62; 45,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,71; 40,38</t>
+          <t>39,37; 45,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>36,61; 40,76</t>
+          <t>39,31; 45,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,27; 40,84</t>
+          <t>36,68; 42,81</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>38,52; 42,69</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>36,8; 40,67</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>37,37; 41,38</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>36,28; 41,18</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>36,16; 40,88</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>37,22; 41,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con grado de felicidad &lt;=7 en la última semana (tasa de respuesta: 99,63%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>364.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>547.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>611.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>624.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>460.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>601.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>639.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>604402</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>590744</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>568505</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>588174</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>82264</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>93857</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>842455</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>770085</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>815195</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>774276</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>97233</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>94695</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1446858</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1360829</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1383700</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1362451</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>179497</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>188552</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>536073; 670733</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>525999; 659786</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>503201; 635837</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>504099; 664936</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>73135; 90454</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>85437; 103514</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>770750; 906030</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>707889; 833811</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>748762; 875691</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>701935; 854988</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>88545; 106341</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>87542; 103472</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1352747; 1546683</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1268605; 1458550</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1286480; 1474219</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1240412; 1475976</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>167313; 191233</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>178176; 200634</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>365.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>435.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>427.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>445575</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>460228</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>451016</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>427294</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22967</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25416</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>572672</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>578961</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>565832</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>596325</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>30225</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25271</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1018247</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1039189</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1016848</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1023619</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>53192</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>50686</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>389914; 519056</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>397787; 529833</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>385410; 517107</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>362865; 487296</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18133; 27986</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20852; 29996</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>512505; 641019</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>526594; 636897</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>507431; 619829</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>534580; 670263</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>25963; 34917</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20897; 30063</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>922412; 1108568</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>950954; 1127069</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>937231; 1115883</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>928739; 1123452</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>47144; 59956</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>44271; 57301</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>156070</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>144670</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>175963</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>194394</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>184717</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>167112</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>163203</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>142367</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>340786</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>311782</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>339166</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>336760</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>118903; 208609</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>113508; 190687</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>139923; 217839</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>147090; 250655</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>152209; 222126</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>135588; 198241</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>133492; 194105</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>108225; 180952</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>288247; 403635</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>264191; 362614</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>291231; 390865</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>279725; 411400</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>601.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>697.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>719.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>525.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>454.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>452.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1014.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1166.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1180.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>891.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>781.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1206047</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1195643</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1195485</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1209862</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>105232</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>119272</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1599844</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1516158</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1544229</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1512968</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>127458</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>119966</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2805891</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2711801</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2739715</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2722830</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>232690</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>239238</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1104790; 1313208</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1100080; 1295801</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1092462; 1291659</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1094343; 1321498</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>95586; 114297</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>108127; 129143</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1496103; 1698402</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1431722; 1606630</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1449928; 1628585</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1408519; 1624183</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>118638; 138511</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>110400; 128843</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2662691; 2950955</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2578564; 2849253</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2604486; 2883639</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>2545504; 2888993</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>217998; 246446</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>224117; 252599</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
